--- a/biology/Zoologie/Atlides_misma/Atlides_misma.xlsx
+++ b/biology/Zoologie/Atlides_misma/Atlides_misma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlides misma est une espèce de papillons de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Atlides.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atlides misma a été décrit par Bernard d'Abrera (d) en 1995[1].
-Noms vernaculaires
-Atlides misma se nomme Misma Hairstreak en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides misma a été décrit par Bernard d'Abrera (d) en 1995.
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atlides misma est un petit papillon avec une courte fine queue à chaque aile postérieure. Le dessus est bleu outremer veiné et bordé de noir.
-Le revers est marron veiné très largement de noir.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides misma se nomme Misma Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -573,12 +590,16 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atlides misma est un petit papillon avec une courte fine queue à chaque aile postérieure. Le dessus est bleu outremer veiné et bordé de noir.
+Le revers est marron veiné très largement de noir.
+</t>
         </is>
       </c>
     </row>
@@ -606,14 +627,50 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside au Brésil, dans la région de Paraná[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside au Brésil, dans la région de Paraná.
 Sur les autres projets Wikimedia :
 Atlides misma, sur Wikimedia CommonsAtlides misma, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Atlides_misma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atlides_misma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
